--- a/backend/app/static/template/TemplateImport.xlsx
+++ b/backend/app/static/template/TemplateImport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamam Nashir\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64031CE3-4E5C-463F-8C9E-A5AE2E5969BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566FE9C4-B0DC-41BF-90B1-0B18674DE143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2194" yWindow="2194" windowWidth="18515" windowHeight="10740" xr2:uid="{86093F07-DFF3-4F33-A155-50367A5049F3}"/>
+    <workbookView xWindow="4080" yWindow="4689" windowWidth="18514" windowHeight="10740" xr2:uid="{86093F07-DFF3-4F33-A155-50367A5049F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -64,6 +58,9 @@
   </si>
   <si>
     <t>serialnumber</t>
+  </si>
+  <si>
+    <t>idasset</t>
   </si>
 </sst>
 </file>
@@ -415,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1588AC-4E2B-4B16-A92B-D5C2C1AD23EF}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -426,36 +423,33 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
